--- a/FATP Exam System/excelModel/UserModel.xlsx
+++ b/FATP Exam System/excelModel/UserModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1382919\source\repos\FATP Exam System\FATP Exam System\excelModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF78FF-8F6C-4CAD-83F8-BF32BA2E9396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9BE1E2-1ECA-4962-AA6E-E78E4D9CAC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NTID</t>
   </si>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>UserLevel</t>
+  </si>
+  <si>
+    <t>13****1</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>18***15</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -103,10 +127,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,29 +413,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="12.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
